--- a/data/GOZO_assignment_count.xlsx
+++ b/data/GOZO_assignment_count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A57149D-B61A-A14A-94A5-6BF7EA27261A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C96B49-D615-2142-8F7F-CD016AFD634D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39260" yWindow="3000" windowWidth="26840" windowHeight="14920" xr2:uid="{2FF04964-7F32-AF41-A5F9-FFB2D5CCFF2D}"/>
+    <workbookView xWindow="30700" yWindow="2500" windowWidth="28800" windowHeight="16420" xr2:uid="{2FF04964-7F32-AF41-A5F9-FFB2D5CCFF2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Session</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>10 out of 38</t>
+  </si>
+  <si>
+    <t>15 out of 42</t>
   </si>
 </sst>
 </file>
@@ -396,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD5B556-9057-0343-A18D-6714DE7E2CA0}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,6 +431,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_assignment_count.xlsx
+++ b/data/GOZO_assignment_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C96B49-D615-2142-8F7F-CD016AFD634D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EA60BE-3DB4-DA4E-A855-B7DDB7FFC5EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30700" yWindow="2500" windowWidth="28800" windowHeight="16420" xr2:uid="{2FF04964-7F32-AF41-A5F9-FFB2D5CCFF2D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Session</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>15 out of 42</t>
+  </si>
+  <si>
+    <t>22 out of 48</t>
   </si>
 </sst>
 </file>
@@ -399,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD5B556-9057-0343-A18D-6714DE7E2CA0}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,6 +442,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_assignment_count.xlsx
+++ b/data/GOZO_assignment_count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EA60BE-3DB4-DA4E-A855-B7DDB7FFC5EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB9C511-5567-4C4F-802F-564FD1F13FF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30700" yWindow="2500" windowWidth="28800" windowHeight="16420" xr2:uid="{2FF04964-7F32-AF41-A5F9-FFB2D5CCFF2D}"/>
+    <workbookView xWindow="1640" yWindow="1120" windowWidth="28800" windowHeight="16420" xr2:uid="{2FF04964-7F32-AF41-A5F9-FFB2D5CCFF2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,24 +33,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Session</t>
+    <t>session</t>
   </si>
   <si>
-    <t>Count</t>
+    <t>completed</t>
   </si>
   <si>
-    <t>10 out of 40</t>
-  </si>
-  <si>
-    <t>10 out of 38</t>
-  </si>
-  <si>
-    <t>15 out of 42</t>
-  </si>
-  <si>
-    <t>22 out of 48</t>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -402,52 +393,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD5B556-9057-0343-A18D-6714DE7E2CA0}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
+      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/data/GOZO_assignment_count.xlsx
+++ b/data/GOZO_assignment_count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB9C511-5567-4C4F-802F-564FD1F13FF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A16BE2F-3433-AA4B-903D-9A7EDD4A031B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="1120" windowWidth="28800" windowHeight="16420" xr2:uid="{2FF04964-7F32-AF41-A5F9-FFB2D5CCFF2D}"/>
+    <workbookView xWindow="34060" yWindow="2580" windowWidth="28800" windowHeight="16300" xr2:uid="{2FF04964-7F32-AF41-A5F9-FFB2D5CCFF2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD5B556-9057-0343-A18D-6714DE7E2CA0}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,6 +456,17 @@
         <v>48</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_assignment_count.xlsx
+++ b/data/GOZO_assignment_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A16BE2F-3433-AA4B-903D-9A7EDD4A031B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD06A8C-101A-9947-A7C1-F325BF67CFD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34060" yWindow="2580" windowWidth="28800" windowHeight="16300" xr2:uid="{2FF04964-7F32-AF41-A5F9-FFB2D5CCFF2D}"/>
   </bookViews>
@@ -461,10 +461,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/GOZO_assignment_count.xlsx
+++ b/data/GOZO_assignment_count.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD06A8C-101A-9947-A7C1-F325BF67CFD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B1FE7E-789E-C047-93FE-9B3B70C879B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34060" yWindow="2580" windowWidth="28800" windowHeight="16300" xr2:uid="{2FF04964-7F32-AF41-A5F9-FFB2D5CCFF2D}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD5B556-9057-0343-A18D-6714DE7E2CA0}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,6 +467,17 @@
         <v>40</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_assignment_count.xlsx
+++ b/data/GOZO_assignment_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B1FE7E-789E-C047-93FE-9B3B70C879B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7B78F5-CC28-EB47-A619-C3F3604EE83D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34060" yWindow="2580" windowWidth="28800" windowHeight="16300" xr2:uid="{2FF04964-7F32-AF41-A5F9-FFB2D5CCFF2D}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD5B556-9057-0343-A18D-6714DE7E2CA0}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,6 +478,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_assignment_count.xlsx
+++ b/data/GOZO_assignment_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7B78F5-CC28-EB47-A619-C3F3604EE83D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8850F7F8-D946-574A-9281-4B28F2BF01BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34060" yWindow="2580" windowWidth="28800" windowHeight="16300" xr2:uid="{2FF04964-7F32-AF41-A5F9-FFB2D5CCFF2D}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD5B556-9057-0343-A18D-6714DE7E2CA0}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -489,6 +489,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_assignment_count.xlsx
+++ b/data/GOZO_assignment_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8850F7F8-D946-574A-9281-4B28F2BF01BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F3BC7A-B265-6444-A151-C1B739C28E3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34060" yWindow="2580" windowWidth="28800" windowHeight="16300" xr2:uid="{2FF04964-7F32-AF41-A5F9-FFB2D5CCFF2D}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD5B556-9057-0343-A18D-6714DE7E2CA0}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -500,6 +500,17 @@
         <v>23</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_assignment_count.xlsx
+++ b/data/GOZO_assignment_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F3BC7A-B265-6444-A151-C1B739C28E3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB18E1D-2EEB-9F44-A8F3-87272225AF33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34060" yWindow="2580" windowWidth="28800" windowHeight="16300" xr2:uid="{2FF04964-7F32-AF41-A5F9-FFB2D5CCFF2D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>session</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>planner</t>
   </si>
 </sst>
 </file>
@@ -393,15 +396,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD5B556-9057-0343-A18D-6714DE7E2CA0}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,8 +414,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -423,7 +429,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -434,7 +440,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -445,7 +451,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -456,7 +462,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -467,7 +473,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -478,7 +484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -489,7 +495,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -500,7 +506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -509,6 +515,23 @@
       </c>
       <c r="C10">
         <v>20</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/GOZO_assignment_count.xlsx
+++ b/data/GOZO_assignment_count.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB18E1D-2EEB-9F44-A8F3-87272225AF33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7AF30E-67BF-BD4B-BBAD-9585525B4153}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34060" yWindow="2580" windowWidth="28800" windowHeight="16300" xr2:uid="{2FF04964-7F32-AF41-A5F9-FFB2D5CCFF2D}"/>
   </bookViews>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD5B556-9057-0343-A18D-6714DE7E2CA0}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -534,6 +534,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_assignment_count.xlsx
+++ b/data/GOZO_assignment_count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7AF30E-67BF-BD4B-BBAD-9585525B4153}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B630C660-63DA-EA43-B244-3FDB48EFAE97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34060" yWindow="2580" windowWidth="28800" windowHeight="16300" xr2:uid="{2FF04964-7F32-AF41-A5F9-FFB2D5CCFF2D}"/>
+    <workbookView xWindow="35840" yWindow="3200" windowWidth="28800" windowHeight="16160" xr2:uid="{2FF04964-7F32-AF41-A5F9-FFB2D5CCFF2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD5B556-9057-0343-A18D-6714DE7E2CA0}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -548,6 +548,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
